--- a/biology/Zoologie/Acari_(classification_phylogénétique)/Acari_(classification_phylogénétique).xlsx
+++ b/biology/Zoologie/Acari_(classification_phylogénétique)/Acari_(classification_phylogénétique).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Acari_(classification_phylog%C3%A9n%C3%A9tique)</t>
+          <t>Acari_(classification_phylogénétique)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette page a pour objet de présenter un arbre phylogénétique des Acari (Acariens), c'est-à-dire un cladogramme mettant en lumière les relations de parenté existant entre leurs différents groupes (ou taxa), telles que les dernières analyses reconnues les proposent. Ce n'est qu'une possibilité, et les principaux débats qui subsistent au sein de la communauté scientifique sont brièvement présentés ci-dessous, avant la bibliographie.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Acari_(classification_phylog%C3%A9n%C3%A9tique)</t>
+          <t>Acari_(classification_phylogénétique)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Arbre phylogénétique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cladogramme présenté ici ne possède qu'une valeur indicative. Il n'est pas forcément consensuel, et on peut toujours se référer à la bibliographie au bas de l'article.
 Le symbole ▲ renvoie à la partie immédiatement supérieure de l'arbre phylogénétique du vivant. Le signe ► renvoie à la classification phylogénétique du groupe considéré. Tout nœud de l'arbre portant plus de deux branches montre une indétermination de la phylogénie interne du groupe considéré.
@@ -1289,7 +1303,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Acari_(classification_phylog%C3%A9n%C3%A9tique)</t>
+          <t>Acari_(classification_phylogénétique)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -1307,7 +1321,9 @@
           <t>Débat scientifique relatif à la phylogénie des Acari</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Certaines analyses phylogénétiques remettent en question la monophylie du groupe (voir la discussion sur la page Arthropoda (classification phylogénétique)).
 </t>
@@ -1320,7 +1336,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Acari_(classification_phylog%C3%A9n%C3%A9tique)</t>
+          <t>Acari_(classification_phylogénétique)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -1340,12 +1356,85 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sources bibliographiques de référence
-Mark Marauni, Michael Heethoff, Katja Schneider, Stefan Scheu, Gerd Weigmann, Jennifer Cianciolo, Richard H. Thomas et Roy A. Norton : « Molecular phylogeny of oribatid mites (Oribatida, Acari): evidence for multiple radiations of parthenogenetic lineages », Experimental and Applied Acarology, vol. 33, 2004, pp. 183–201
-Sources internet
-Synopsis of the Described Arachnida of the World
-Liens internes
-Acari
+          <t>Sources bibliographiques de référence</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Mark Marauni, Michael Heethoff, Katja Schneider, Stefan Scheu, Gerd Weigmann, Jennifer Cianciolo, Richard H. Thomas et Roy A. Norton : « Molecular phylogeny of oribatid mites (Oribatida, Acari): evidence for multiple radiations of parthenogenetic lineages », Experimental and Applied Acarology, vol. 33, 2004, pp. 183–201</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Acari_(classification_phylogénétique)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Acari_(classification_phylog%C3%A9n%C3%A9tique)</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>En savoir plus</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Sources internet</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Synopsis of the Described Arachnida of the World</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Acari_(classification_phylogénétique)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Acari_(classification_phylog%C3%A9n%C3%A9tique)</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>En savoir plus</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Liens internes</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Acari
 Arbre phylogénétique
 Le vivant (classification phylogénétique)
 Eukaryota (classification phylogénétique)
